--- a/target/test-classes/cases_v8.xlsx
+++ b/target/test-classes/cases_v8.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="11">
   <si>
     <t>接口编号</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>{"code":0,"msg":"OK","data":{"id":88109,"leave_amount":974400.0,"mobile_phone":"18900492238","reg_name":"小柠檬","reg_time":"2019-12-18 21:34:13.0","type":1},"copyright":"Copyright 柠檬班 © 2017-2019 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+  </si>
+  <si>
+    <t>{"code":1003,"copyright":"Copyright 柠檬班 © 2017-2019 湖南省零檬信息技术有限公司 All Rights Reserved","msg":"未授权或token已过期"}</t>
   </si>
 </sst>
 </file>
@@ -1662,10 +1665,10 @@
         <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:7">
@@ -1708,10 +1711,10 @@
         <v>55</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1734,10 +1737,10 @@
         <v>59</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:7">
@@ -1826,10 +1829,10 @@
         <v>67</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row ht="27" r="12" spans="1:7">
@@ -1849,10 +1852,10 @@
         <v>55</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1872,7 +1875,7 @@
         <v>74</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>92</v>
@@ -1895,10 +1898,10 @@
         <v>77</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1918,10 +1921,10 @@
         <v>77</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1941,7 +1944,7 @@
         <v>82</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>92</v>
@@ -1964,10 +1967,10 @@
         <v>82</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
@@ -1990,10 +1993,10 @@
         <v>82</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
